--- a/イベント登録_単体テスト.xlsx
+++ b/イベント登録_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{559F9689-39DF-405F-8D5E-9AFB87DE0D31}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD80505-EAB3-490E-9572-FDBCF34C9AEA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント登録" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -262,16 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「確認する」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
@@ -773,16 +763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始日の入力値を表示</t>
-    <rPh sb="0" eb="3">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容の入力値を表示</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -865,22 +845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>終了日の入力値を表示（ない場合は表示せず）</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント登録画面で入力された値の表示（ない場合は表示せず）</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -1343,6 +1307,153 @@
     <t>0/500の表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間が入力必須項目か確認</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「開始時間」を未入力にする</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間が時計から選択可能か確認</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間が時計から選択可能か確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時計から選択可</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.時計から時間を選択する</t>
+    <rPh sb="2" eb="4">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時の入力値を表示</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時の入力値を表示（ない場合は表示せず）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1439,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,9 +1579,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1951,7 +2059,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A61:I64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A67:I70" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="31" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="29"/>
@@ -2318,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2332,7 +2440,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2345,7 +2453,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2372,12 +2480,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2418,19 +2526,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45993</v>
+        <v>66</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2440,7 +2548,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2456,19 +2564,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45993</v>
+        <v>67</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2478,7 +2586,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2494,19 +2602,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2516,7 +2624,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2532,19 +2640,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>45993</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2554,7 +2662,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2570,19 +2678,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45993</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2592,7 +2700,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2608,19 +2716,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+        <v>68</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2630,7 +2738,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2646,19 +2754,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="4">
-        <v>45993</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2668,7 +2776,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2684,19 +2792,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45993</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2706,7 +2814,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2725,16 +2833,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4">
-        <v>45993</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2744,7 +2852,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2760,19 +2868,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+        <v>98</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2796,19 +2904,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45993</v>
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2832,19 +2940,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45993</v>
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2868,19 +2976,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45993</v>
+        <v>125</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2904,18 +3012,20 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45993</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2938,19 +3048,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45993</v>
+        <v>99</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2959,9 +3069,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2976,19 +3084,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45993</v>
+        <v>112</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -3012,19 +3120,19 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="4">
-        <v>45993</v>
+        <v>17</v>
+      </c>
+      <c r="G40" s="3">
+        <v>46016</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3033,7 +3141,9 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3048,18 +3158,20 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="4">
-        <v>45993</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G42" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3082,19 +3194,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="4">
-        <v>45993</v>
+        <v>70</v>
+      </c>
+      <c r="G44" s="3">
+        <v>46016</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3103,9 +3215,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3120,19 +3230,19 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45993</v>
+        <v>110</v>
+      </c>
+      <c r="G46" s="3">
+        <v>46016</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3141,9 +3251,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3158,19 +3266,19 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45993</v>
+        <v>29</v>
+      </c>
+      <c r="G48" s="3">
+        <v>46016</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3180,7 +3288,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3196,19 +3304,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45993</v>
+        <v>29</v>
+      </c>
+      <c r="G50" s="3">
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3218,7 +3326,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3234,19 +3342,19 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45993</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3256,7 +3364,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3272,19 +3380,19 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="4">
-        <v>45993</v>
+        <v>29</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46016</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -3294,7 +3402,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3310,19 +3418,19 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="4">
-        <v>45993</v>
+        <v>106</v>
+      </c>
+      <c r="G56" s="3">
+        <v>46016</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3332,7 +3440,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3344,23 +3452,23 @@
         <v>26</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" s="4">
-        <v>45992</v>
+        <v>106</v>
+      </c>
+      <c r="G58" s="3">
+        <v>46016</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -3370,7 +3478,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3386,19 +3494,19 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="4">
-        <v>45992</v>
+        <v>56</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="3">
+        <v>46016</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -3408,12 +3516,126 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2">
+        <v>29</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2">
+        <v>30</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3432,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3444,7 +3666,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3457,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3484,12 +3706,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3528,19 +3750,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3550,7 +3772,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3566,19 +3788,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -3588,7 +3810,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3604,19 +3826,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -3626,7 +3848,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3642,19 +3864,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3664,7 +3886,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3680,19 +3902,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3702,7 +3924,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3718,19 +3940,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G18" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -3740,7 +3962,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3759,16 +3981,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3778,7 +4000,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3797,16 +4019,16 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -3816,7 +4038,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3832,19 +4054,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G24" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3854,7 +4076,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3870,19 +4092,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G26" s="4">
-        <v>45993</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3892,7 +4114,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3915,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3927,7 +4149,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3940,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3967,12 +4189,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4011,19 +4233,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45993</v>
+        <v>92</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4033,7 +4255,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4049,19 +4271,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45993</v>
+        <v>93</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4071,7 +4293,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4087,19 +4309,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45993</v>
+        <v>94</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46016</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -4109,7 +4331,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4125,19 +4347,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45993</v>
+        <v>95</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -4149,7 +4371,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -4162,7 +4384,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4178,19 +4400,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+        <v>115</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -4200,7 +4422,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
